--- a/LESSON/Excel Lesson/Bài 1.xlsx
+++ b/LESSON/Excel Lesson/Bài 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bb3dcffef2d668f/Documents/GitHub/Tieng-Nhat/LESSON/Excel Lesson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7A7A7A-CAD8-4AF0-8B84-4BBEC26E9CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FC7A7A7A-CAD8-4AF0-8B84-4BBEC26E9CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2536E3E-8CB6-4F44-B791-F7A84B4FBB15}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="không dùng kanji đổi cột kanji " sheetId="1" r:id="rId1"/>
@@ -478,13 +478,13 @@
     <t>quản lý vệ sinh chung</t>
   </si>
   <si>
-    <t>読み方 (Yomikata) 2</t>
-  </si>
-  <si>
     <t>Romaji 2</t>
   </si>
   <si>
     <t>Vietnamese 2</t>
+  </si>
+  <si>
+    <t>(ひらがな) Hiragana</t>
   </si>
 </sst>
 </file>
@@ -749,18 +749,18 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -774,13 +774,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>120</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>126</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>129</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>135</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>138</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>141</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>144</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
